--- a/Lobster Notes Data Dictionary Final.xlsx
+++ b/Lobster Notes Data Dictionary Final.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gage\Desktop\COS 457 - Database Systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B54ECE-75DC-4E54-A753-5024C0E032B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BFB91D-83C6-4E90-B61D-DE41439945BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Edit ver (changes in blue)" sheetId="1" r:id="rId1"/>
+    <sheet name="Final Version" sheetId="1" r:id="rId1"/>
     <sheet name="Second ver" sheetId="2" r:id="rId2"/>
     <sheet name="First ver" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="164">
   <si>
     <t>TABLE NAME</t>
   </si>
@@ -554,6 +554,12 @@
   </si>
   <si>
     <t>Name of professor teaching course</t>
+  </si>
+  <si>
+    <t>UNSIGNED; NULL</t>
+  </si>
+  <si>
+    <t>UserID of the professor teaching the Course</t>
   </si>
 </sst>
 </file>
@@ -803,10 +809,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -816,47 +818,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1030,10 +1000,21 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
           <color indexed="64"/>
-        </bottom>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1050,6 +1031,31 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1154,16 +1160,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:H51" headerRowDxfId="1" totalsRowDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:H51" headerRowDxfId="11" totalsRowDxfId="8" headerRowBorderDxfId="10" tableBorderDxfId="9">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TABLE NAME" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ATTRIBUTE NAME" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DATA TYPE" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FORMAT" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CONSTRAINTS" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="DESCRIPTION" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="PK OR FK" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FK REFERENCED TABLE" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TABLE NAME" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ATTRIBUTE NAME" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DATA TYPE" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FORMAT" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CONSTRAINTS" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="DESCRIPTION" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="PK OR FK" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FK REFERENCED TABLE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="First ver-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1399,9 +1405,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:P1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1417,303 +1428,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="29"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="29"/>
+      <c r="H7" s="27"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28" t="s">
+      <c r="D11" s="26"/>
+      <c r="E11" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="27" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28" t="s">
+      <c r="D13" s="26"/>
+      <c r="E13" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28" t="s">
+      <c r="D16" s="26"/>
+      <c r="E16" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="27" t="s">
         <v>59</v>
       </c>
       <c r="J16" s="1"/>
@@ -1725,638 +1740,638 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28" t="s">
+      <c r="D17" s="26"/>
+      <c r="E17" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="27" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="29"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28" t="s">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="29" t="s">
+      <c r="H22" s="27" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28" t="s">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="H25" s="27" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28" t="s">
+      <c r="A26" s="25"/>
+      <c r="B26" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28" t="s">
+      <c r="D26" s="26"/>
+      <c r="E26" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28" t="s">
+      <c r="D28" s="26"/>
+      <c r="E28" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="29" t="s">
+      <c r="H28" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28" t="s">
+      <c r="A29" s="25"/>
+      <c r="B29" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28" t="s">
+      <c r="D29" s="26"/>
+      <c r="E29" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="29"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="29"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28" t="s">
+      <c r="D31" s="26"/>
+      <c r="E31" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="H31" s="29" t="s">
+      <c r="H31" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="29"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28" t="s">
+      <c r="D33" s="26"/>
+      <c r="E33" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="G33" s="28" t="s">
+      <c r="G33" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="H33" s="29" t="s">
+      <c r="H33" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="28" t="s">
+      <c r="A34" s="25"/>
+      <c r="B34" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="29"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="29"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="27"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28" t="s">
+      <c r="D36" s="26"/>
+      <c r="E36" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="28" t="s">
+      <c r="F36" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="G36" s="28" t="s">
+      <c r="G36" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="H36" s="29" t="s">
+      <c r="H36" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="28" t="s">
+      <c r="A37" s="25"/>
+      <c r="B37" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="F37" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G37" s="28"/>
-      <c r="H37" s="29"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="29"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28" t="s">
+      <c r="D39" s="26"/>
+      <c r="E39" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="28" t="s">
+      <c r="G39" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="H39" s="29" t="s">
+      <c r="H39" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="28" t="s">
+      <c r="A40" s="25"/>
+      <c r="B40" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28" t="s">
+      <c r="D40" s="26"/>
+      <c r="E40" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="F40" s="28" t="s">
+      <c r="F40" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="28"/>
-      <c r="H40" s="29"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="29"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="27"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28" t="s">
+      <c r="D42" s="26"/>
+      <c r="E42" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="28" t="s">
+      <c r="F42" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="28" t="s">
+      <c r="G42" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="29"/>
+      <c r="H42" s="27"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="28" t="s">
+      <c r="A43" s="25"/>
+      <c r="B43" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28" t="s">
+      <c r="D43" s="26"/>
+      <c r="E43" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="G43" s="28"/>
-      <c r="H43" s="29"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="27"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28" t="s">
+      <c r="A44" s="25"/>
+      <c r="B44" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E44" s="28" t="s">
+      <c r="E44" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="F44" s="28" t="s">
+      <c r="F44" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="G44" s="28"/>
-      <c r="H44" s="29"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="27"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="28" t="s">
+      <c r="A45" s="25"/>
+      <c r="B45" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="E45" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="28" t="s">
+      <c r="F45" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="G45" s="28"/>
-      <c r="H45" s="29"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="27"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="29"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="27"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28" t="s">
+      <c r="D47" s="26"/>
+      <c r="E47" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F47" s="28" t="s">
+      <c r="F47" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="28" t="s">
+      <c r="G47" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="H47" s="29" t="s">
+      <c r="H47" s="27" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="28" t="s">
+      <c r="A48" s="25"/>
+      <c r="B48" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="28" t="s">
+      <c r="E48" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F48" s="28" t="s">
+      <c r="F48" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G48" s="28"/>
-      <c r="H48" s="29"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="29"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="27"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28" t="s">
+      <c r="D50" s="26"/>
+      <c r="E50" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="28" t="s">
+      <c r="F50" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="G50" s="28" t="s">
+      <c r="G50" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="29"/>
+      <c r="H50" s="27"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
-      <c r="B51" s="31" t="s">
+      <c r="A51" s="28"/>
+      <c r="B51" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31" t="s">
+      <c r="D51" s="29"/>
+      <c r="E51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F51" s="31" t="s">
+      <c r="F51" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="G51" s="31"/>
-      <c r="H51" s="32"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="30"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E52" s="2"/>
@@ -6207,15 +6222,15 @@
       <c r="A1" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
